--- a/src/output/db/default.xlsx
+++ b/src/output/db/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsoli\OneDrive\Documentos\GitHub\MikroGuard\src\output\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70899BF2-1713-4411-81BD-563DD0E1BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCDBCD-C0C5-42F4-A269-6A77994FB610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,22 +28,22 @@
     <t>subred</t>
   </si>
   <si>
-    <t>cliente</t>
-  </si>
-  <si>
-    <t>punto de venta</t>
-  </si>
-  <si>
-    <t>nombre vpn</t>
+    <t>razon_social</t>
+  </si>
+  <si>
+    <t>punto_de_venta</t>
+  </si>
+  <si>
+    <t>nombre_vpn</t>
   </si>
   <si>
     <t>ip</t>
   </si>
   <si>
-    <t>clave publica</t>
-  </si>
-  <si>
-    <t>clave privada</t>
+    <t>clave_publica</t>
+  </si>
+  <si>
+    <t>clave_privada</t>
   </si>
   <si>
     <t>cliente 1</t>
@@ -254,12 +254,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="grupo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="subred"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="cliente"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="punto de venta"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nombre vpn"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="razon_social"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="punto_de_venta"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nombre_vpn"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ip"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="clave publica"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="clave privada"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="clave_publica"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="clave_privada"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,14 +531,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>

--- a/src/output/db/default.xlsx
+++ b/src/output/db/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsoli\OneDrive\Documentos\GitHub\MikroGuard\src\output\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCDBCD-C0C5-42F4-A269-6A77994FB610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF81F1B-2224-49C5-B1BD-A4962E9BBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>grupo</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>cliente 1.3</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
   <si>
     <t>cliente 1.4</t>
@@ -531,7 +534,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,107 +599,116 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
